--- a/src/main/java/com/billhub/qa/testdata/non_po_invoice_verification_with_different_data_in_2_sheets.xlsx
+++ b/src/main/java/com/billhub/qa/testdata/non_po_invoice_verification_with_different_data_in_2_sheets.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBDCB0A-203A-431A-8A26-C911623EC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Memo_Verification_details" sheetId="1" r:id="rId1"/>
@@ -1013,7 +1014,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1083,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1097,8 +1098,6 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,6 +1107,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1402,42 +1404,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="11.453125" customWidth="1"/>
-    <col min="21" max="1029" width="8.54296875" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="1029" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1499,130 +1501,87 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" t="s">
         <v>327</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2">
         <v>5000000010</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" t="s">
         <v>328</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2">
         <v>5000000010</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2">
         <v>996713</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" t="s">
         <v>82</v>
       </c>
       <c r="P2" s="10">
         <v>0</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" t="s">
         <v>329</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" t="s">
         <v>209</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" promptTitle="Warning" prompt="Do not edit value" sqref="B2:K2"/>
+    <dataValidation showInputMessage="1" promptTitle="Warning" prompt="Do not edit value" sqref="B2:K2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Tax Code'!$A$2:$A$70</xm:f>
-          </x14:formula1>
-          <xm:sqref>O10:O7001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Tax Code'!$A$2:$A$70</xm:f>
           </x14:formula1>
           <xm:sqref>O2:O7001</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Withholding Tax'!$C$2:$C$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q10:Q7001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showErrorMessage="1">
+        <x14:dataValidation type="list" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'Withholding Tax'!$C$2:$C$16</xm:f>
           </x14:formula1>
           <xm:sqref>Q2:Q7001</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Payment Term'!$A$2:$A$76</xm:f>
-          </x14:formula1>
-          <xm:sqref>S10:S7001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showErrorMessage="1">
+        <x14:dataValidation type="list" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>'Payment Term'!$A$2:$A$76</xm:f>
           </x14:formula1>
@@ -1635,33 +1594,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="10" width="8.54296875" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" customWidth="1"/>
-    <col min="14" max="14" width="21.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" customWidth="1"/>
-    <col min="17" max="1026" width="8.54296875" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" customWidth="1"/>
+    <col min="17" max="1026" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1711,51 +1670,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="11">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2">
         <v>0.36</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2">
         <v>996713</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" t="s">
         <v>324</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" t="s">
         <v>325</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2">
         <v>2.36</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1766,22 +1724,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1795,7 +1753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1823,7 +1781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1837,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1851,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1865,7 +1823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1879,7 +1837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1893,7 +1851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1907,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1921,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1935,7 +1893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1949,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1963,7 +1921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1977,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1991,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2012,22 +1970,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2038,7 +1996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2049,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -2060,7 +2018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -2071,7 +2029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2082,7 +2040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -2093,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2104,7 +2062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2115,7 +2073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -2126,7 +2084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2137,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -2148,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -2159,7 +2117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -2170,7 +2128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2181,7 +2139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2192,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -2203,7 +2161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2214,7 +2172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -2225,7 +2183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -2236,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -2247,7 +2205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -2258,7 +2216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2269,7 +2227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -2280,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -2291,7 +2249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -2302,7 +2260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -2313,7 +2271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -2324,7 +2282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -2335,7 +2293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -2346,7 +2304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -2357,7 +2315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -2368,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>130</v>
       </c>
@@ -2379,7 +2337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -2390,7 +2348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -2401,7 +2359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -2412,7 +2370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -2423,7 +2381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -2434,7 +2392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -2445,7 +2403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -2456,7 +2414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -2467,7 +2425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -2478,7 +2436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -2489,7 +2447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -2500,7 +2458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -2511,7 +2469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -2522,7 +2480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>158</v>
       </c>
@@ -2533,7 +2491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -2544,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -2555,7 +2513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -2566,7 +2524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -2577,7 +2535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>168</v>
       </c>
@@ -2588,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>170</v>
       </c>
@@ -2599,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -2610,7 +2568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>174</v>
       </c>
@@ -2621,7 +2579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>176</v>
       </c>
@@ -2632,7 +2590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -2643,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -2654,7 +2612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -2665,7 +2623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>184</v>
       </c>
@@ -2676,7 +2634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>186</v>
       </c>
@@ -2687,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>188</v>
       </c>
@@ -2698,7 +2656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -2709,7 +2667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>192</v>
       </c>
@@ -2720,7 +2678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -2731,7 +2689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -2742,7 +2700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>198</v>
       </c>
@@ -2753,7 +2711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -2764,7 +2722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -2775,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>204</v>
       </c>
@@ -2786,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -2804,21 +2762,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="2" width="42.26953125" customWidth="1"/>
-    <col min="3" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" customWidth="1"/>
+    <col min="3" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>207</v>
       </c>
@@ -2826,7 +2784,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -2834,7 +2792,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -2842,7 +2800,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -2850,7 +2808,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>215</v>
       </c>
@@ -2858,7 +2816,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -2866,7 +2824,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -2874,7 +2832,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -2882,7 +2840,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -2890,7 +2848,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -2898,7 +2856,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -2906,7 +2864,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>229</v>
       </c>
@@ -2914,7 +2872,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -2922,7 +2880,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -2930,7 +2888,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>235</v>
       </c>
@@ -2938,7 +2896,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>237</v>
       </c>
@@ -2946,7 +2904,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>239</v>
       </c>
@@ -2954,7 +2912,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>241</v>
       </c>
@@ -2962,7 +2920,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>243</v>
       </c>
@@ -2970,7 +2928,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -2978,7 +2936,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>247</v>
       </c>
@@ -2986,7 +2944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>249</v>
       </c>
@@ -2994,7 +2952,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>251</v>
       </c>
@@ -3002,7 +2960,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -3010,7 +2968,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>255</v>
       </c>
@@ -3018,7 +2976,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>257</v>
       </c>
@@ -3026,7 +2984,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>259</v>
       </c>
@@ -3034,7 +2992,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>261</v>
       </c>
@@ -3042,7 +3000,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -3050,7 +3008,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>265</v>
       </c>
@@ -3058,7 +3016,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>267</v>
       </c>
@@ -3066,7 +3024,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>269</v>
       </c>
@@ -3074,7 +3032,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>271</v>
       </c>
@@ -3082,7 +3040,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>273</v>
       </c>
@@ -3090,7 +3048,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>275</v>
       </c>
@@ -3098,7 +3056,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>277</v>
       </c>
@@ -3106,7 +3064,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>279</v>
       </c>
@@ -3114,7 +3072,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>281</v>
       </c>
@@ -3122,7 +3080,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>283</v>
       </c>
@@ -3130,7 +3088,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>285</v>
       </c>
@@ -3138,7 +3096,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>286</v>
       </c>
@@ -3146,7 +3104,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>287</v>
       </c>
@@ -3154,7 +3112,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>288</v>
       </c>
@@ -3162,7 +3120,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>289</v>
       </c>
@@ -3170,7 +3128,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>290</v>
       </c>
@@ -3178,7 +3136,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>291</v>
       </c>
@@ -3186,7 +3144,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -3194,7 +3152,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -3202,7 +3160,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -3210,7 +3168,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>295</v>
       </c>
@@ -3218,7 +3176,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>296</v>
       </c>
@@ -3226,7 +3184,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>297</v>
       </c>
@@ -3234,7 +3192,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>298</v>
       </c>
@@ -3242,7 +3200,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -3250,7 +3208,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>300</v>
       </c>
@@ -3258,7 +3216,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>301</v>
       </c>
@@ -3266,7 +3224,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>302</v>
       </c>
@@ -3274,7 +3232,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>303</v>
       </c>
@@ -3282,7 +3240,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>304</v>
       </c>
@@ -3290,7 +3248,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>305</v>
       </c>
@@ -3298,7 +3256,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>306</v>
       </c>
@@ -3306,7 +3264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>307</v>
       </c>
@@ -3314,7 +3272,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>308</v>
       </c>
@@ -3322,7 +3280,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>309</v>
       </c>
@@ -3330,7 +3288,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>310</v>
       </c>
@@ -3338,7 +3296,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>311</v>
       </c>
@@ -3346,7 +3304,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>312</v>
       </c>
@@ -3354,7 +3312,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>313</v>
       </c>
@@ -3362,7 +3320,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>314</v>
       </c>
@@ -3370,7 +3328,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -3378,7 +3336,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>316</v>
       </c>
@@ -3386,7 +3344,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>317</v>
       </c>
@@ -3394,7 +3352,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>318</v>
       </c>
@@ -3402,7 +3360,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>319</v>
       </c>
@@ -3410,7 +3368,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>320</v>
       </c>
@@ -3418,7 +3376,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>321</v>
       </c>
